--- a/04 조달서버 인증서.xlsx
+++ b/04 조달서버 인증서.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="계산서 사용" sheetId="1" r:id="rId1"/>
-    <sheet name="사용 안함" sheetId="2" r:id="rId2"/>
+    <sheet name="월별 출력" sheetId="3" r:id="rId2"/>
+    <sheet name="사용 안함" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'계산서 사용'!$B$2:$H$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'사용 안함'!$B$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'계산서 사용'!$B$2:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'사용 안함'!$B$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
   <si>
     <t xml:space="preserve">AJ_004 </t>
   </si>
@@ -291,6 +292,300 @@
   </si>
   <si>
     <t>박혜선 2018-10-22통화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남서남부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>대전세종충남북부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>803-82-00138</t>
+  </si>
+  <si>
+    <t>818-82-00203</t>
+  </si>
+  <si>
+    <t>경남중부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>637-82-00152</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남중부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>772-82-00135</t>
+  </si>
+  <si>
+    <t>남울산레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>748-82-00170</t>
+  </si>
+  <si>
+    <t>전남동남부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>865-82-00140</t>
+  </si>
+  <si>
+    <t>경북레미콘공업협동조합</t>
+  </si>
+  <si>
+    <t>502-82-11256</t>
+  </si>
+  <si>
+    <t>영남레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>511-82-05103</t>
+  </si>
+  <si>
+    <t>608-82-06124</t>
+  </si>
+  <si>
+    <t>경남레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>613-82-12292</t>
+  </si>
+  <si>
+    <t>경상남도레미콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남동부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>416-82-05507</t>
+  </si>
+  <si>
+    <t>경인레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>121-82-11789</t>
+  </si>
+  <si>
+    <t>경기남부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>125-82-11253</t>
+  </si>
+  <si>
+    <t>대전세종충남동부아스콘사업협동조합</t>
+  </si>
+  <si>
+    <t>737-82-00127</t>
+  </si>
+  <si>
+    <t>738-82-00187</t>
+  </si>
+  <si>
+    <t>대전세종충남북부아스콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남서부아스콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>545-82-00168</t>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북제일레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>502-82-11256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산레미콘공업협동조합</t>
+  </si>
+  <si>
+    <t>610-82-06321</t>
+  </si>
+  <si>
+    <t>부산동부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>362-82-00132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기서북부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>141-82-00928</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기중부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>126-82-09648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남남서부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>314-82-18064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원남부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>224-82-12374</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원북부레미콘사업협동조합</t>
+  </si>
+  <si>
+    <t>227-82-08980</t>
+  </si>
+  <si>
+    <t>대전세종충청레미콘공업협동조합</t>
+  </si>
+  <si>
+    <t>305-82-08316</t>
+  </si>
+  <si>
+    <t>강원동부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>226-81-47284</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남레미콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540-82-00028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울경인레미콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220-82-00293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남레미콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410-82-07716</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남남부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>415-82-12965</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남제일레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>703-82-00181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남중서북부레미콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>228-82-01734</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산레미콘공업(협)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>617-82-03174</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남아스콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-82-09367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남서북부아스콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>314-82-12376</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남중부아스콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>307-81-27549</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남아스콘공업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410-82-10147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남제일아스콘사업협동조합</t>
+  </si>
+  <si>
+    <t>412-82-06595</t>
+  </si>
+  <si>
+    <t>전남아스콘사업협동조합</t>
+  </si>
+  <si>
+    <t>412-82-06580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남동서아스콘사업협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>719-82-00089</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,10 +594,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="&quot;조달서버 인증서 (총&quot;\ #,##0&quot;개)&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot;월&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;조달서버 인증서 (총&quot;\ #,##0&quot;개)&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;월&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +661,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -413,13 +717,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,9 +1000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,18 +1009,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,22 +1021,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,7 +1039,226 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,12 +1541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -800,865 +1553,1110 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="4.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="4" max="4" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="35.25" customHeight="1">
-      <c r="B1" s="18"/>
-      <c r="C1" s="24">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14">
-        <f>COUNTIF(E3:E50,C1)</f>
+    <row r="1" spans="2:10" ht="35.25" customHeight="1">
+      <c r="B1" s="14"/>
+      <c r="C1" s="17">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="21">
+        <f>COUNTIF(G3:G50,C1)</f>
         <v>16</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="2:8" s="20" customFormat="1" ht="33">
-      <c r="B2" s="19" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="2:10" s="15" customFormat="1" ht="33.75" thickBot="1">
+      <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="B3" s="21">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B3" s="24">
+        <v>12</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="J3" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B4" s="7">
+    <row r="4" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B4" s="30">
         <v>19</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="B5" s="12">
+      <c r="I4" s="10"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B5" s="32">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="I5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="J5" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B6" s="7">
+    <row r="6" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B6" s="30">
         <v>26</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B7" s="7">
+      <c r="I6" s="10"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B7" s="30">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="B8" s="12">
+      <c r="I7" s="10"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B8" s="34">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="I8" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B9" s="7">
+    <row r="9" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="39">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
+      <c r="G9" s="39">
         <v>3</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="H9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="28">
+      <c r="I9" s="40"/>
+      <c r="J9" s="41">
         <v>43543</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B10" s="7">
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B10" s="30">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="G10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="28">
+      <c r="I10" s="10"/>
+      <c r="J10" s="42">
         <v>43543</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="7">
+    <row r="11" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B11" s="43">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="44">
         <v>3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="G11" s="44">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="H11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="28">
+      <c r="I11" s="45"/>
+      <c r="J11" s="46">
         <v>43544</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B12" s="7">
+    <row r="12" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B12" s="38">
         <v>101</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="39">
         <v>5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="G12" s="39">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B13" s="7">
+      <c r="I12" s="40"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B13" s="30">
         <v>102</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="12">
         <v>5</v>
       </c>
-      <c r="E13" s="16">
+      <c r="G13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B14" s="7">
+      <c r="I13" s="10"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B14" s="30">
         <v>103</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="12">
         <v>5</v>
       </c>
-      <c r="E14" s="16">
+      <c r="G14" s="12">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B15" s="7">
+      <c r="I14" s="10"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B15" s="30">
         <v>107</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="16">
+      <c r="G15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B16" s="7">
+      <c r="I15" s="10"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B16" s="30">
         <v>108</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="16">
+      <c r="G16" s="12">
         <v>5</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B17" s="7">
+      <c r="I16" s="10"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B17" s="30">
         <v>109</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="16">
+      <c r="G17" s="12">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B18" s="7">
+      <c r="I17" s="10"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B18" s="43">
         <v>110</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="44">
         <v>5</v>
       </c>
-      <c r="E18" s="16">
+      <c r="G18" s="44">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="H18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B19" s="7">
+      <c r="I18" s="45"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="39">
         <v>6</v>
       </c>
-      <c r="E19" s="16">
+      <c r="G19" s="39">
         <v>6</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="H19" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B20" s="7">
+      <c r="I19" s="40"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B20" s="43">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="44">
         <v>6</v>
       </c>
-      <c r="E20" s="16">
+      <c r="G20" s="44">
         <v>6</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="H20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="39">
         <v>7</v>
       </c>
-      <c r="E21" s="16">
+      <c r="G21" s="39">
         <v>7</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="H21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B22" s="7">
+      <c r="I21" s="40"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B22" s="30">
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="12">
         <v>7</v>
       </c>
-      <c r="E22" s="16">
+      <c r="G22" s="12">
         <v>7</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B23" s="7">
+      <c r="I22" s="10"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B23" s="49">
         <v>29</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="50">
         <v>7</v>
       </c>
-      <c r="E23" s="16">
+      <c r="G23" s="50">
         <v>7</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="H23" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B24" s="7">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B24" s="53">
         <v>18</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="54">
         <v>8</v>
       </c>
-      <c r="E24" s="16">
+      <c r="G24" s="54">
         <v>8</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="H24" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B25" s="7">
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B25" s="53">
         <v>6</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="54">
         <v>9</v>
       </c>
-      <c r="E25" s="16">
+      <c r="G25" s="54">
         <v>9</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="H25" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B26" s="7">
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B26" s="53">
         <v>21</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="57">
         <v>10</v>
       </c>
-      <c r="E26" s="17">
+      <c r="G26" s="57">
         <v>10</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="H26" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" s="26" customFormat="1">
-      <c r="B27" s="12">
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="2:10" s="19" customFormat="1">
+      <c r="B27" s="58">
         <v>7</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="D27" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="59">
+        <v>1</v>
+      </c>
+      <c r="G27" s="59">
+        <v>12</v>
+      </c>
+      <c r="H27" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="I27" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8" s="26" customFormat="1">
-      <c r="B28" s="12">
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="2:10" s="19" customFormat="1">
+      <c r="B28" s="32">
         <v>9</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="D28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="I28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:8" s="26" customFormat="1">
-      <c r="B29" s="12">
+      <c r="J28" s="61"/>
+    </row>
+    <row r="29" spans="2:10" s="19" customFormat="1">
+      <c r="B29" s="32">
         <v>15</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="D29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="I29" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8" s="26" customFormat="1">
-      <c r="B30" s="12">
+      <c r="J29" s="61"/>
+    </row>
+    <row r="30" spans="2:10" s="19" customFormat="1">
+      <c r="B30" s="32">
         <v>17</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="D30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="I30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="2:8" s="26" customFormat="1">
-      <c r="B31" s="12">
+      <c r="J30" s="61"/>
+    </row>
+    <row r="31" spans="2:10" s="19" customFormat="1">
+      <c r="B31" s="32">
         <v>20</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="D31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>12</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="I31" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="2:8" s="26" customFormat="1">
-      <c r="B32" s="12">
+      <c r="J31" s="61"/>
+    </row>
+    <row r="32" spans="2:10" s="19" customFormat="1">
+      <c r="B32" s="32">
         <v>24</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="D32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="I32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="2:8" s="26" customFormat="1">
-      <c r="B33" s="12">
+      <c r="J32" s="61"/>
+    </row>
+    <row r="33" spans="2:10" s="19" customFormat="1">
+      <c r="B33" s="32">
         <v>104</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="D33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>12</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="I33" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="2:8" s="26" customFormat="1">
-      <c r="B34" s="12">
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="2:10" s="19" customFormat="1">
+      <c r="B34" s="32">
         <v>105</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="D34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>12</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="I34" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:8" s="26" customFormat="1">
-      <c r="B35" s="12">
+      <c r="J34" s="62"/>
+    </row>
+    <row r="35" spans="2:10" s="19" customFormat="1">
+      <c r="B35" s="32">
         <v>106</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="D35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>12</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="I35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="7">
+      <c r="J35" s="62"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="30">
         <v>10</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16">
-        <v>12</v>
-      </c>
-      <c r="E36" s="16">
-        <v>12</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="D36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="12">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12">
+        <v>12</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="7">
+      <c r="I36" s="10"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="30">
         <v>11</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="16">
-        <v>12</v>
-      </c>
-      <c r="E37" s="16">
-        <v>12</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="D37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="12">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <v>12</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="7">
+      <c r="I37" s="10"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="30">
         <v>13</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="16">
-        <v>12</v>
-      </c>
-      <c r="E38" s="16">
-        <v>12</v>
-      </c>
-      <c r="F38" s="16" t="s">
+      <c r="D38" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="12">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12">
+        <v>12</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="7">
+      <c r="I38" s="10"/>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="30">
         <v>14</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="16">
-        <v>12</v>
-      </c>
-      <c r="E39" s="16">
-        <v>12</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="12">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12">
+        <v>12</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="7">
+      <c r="I39" s="10"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="30">
         <v>23</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="17">
-        <v>12</v>
-      </c>
-      <c r="E40" s="17">
-        <v>12</v>
-      </c>
-      <c r="F40" s="17" t="s">
+      <c r="D40" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="13">
+        <v>12</v>
+      </c>
+      <c r="G40" s="13">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="7">
+      <c r="I40" s="10"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="30">
         <v>25</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="17">
-        <v>12</v>
-      </c>
-      <c r="E41" s="17">
-        <v>12</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="D41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="13">
+        <v>12</v>
+      </c>
+      <c r="G41" s="13">
+        <v>12</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="7">
+      <c r="I41" s="10"/>
+      <c r="J41" s="31"/>
+    </row>
+    <row r="42" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B42" s="43">
         <v>28</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="16">
-        <v>12</v>
-      </c>
-      <c r="E42" s="16">
-        <v>12</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="D42" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="44">
+        <v>12</v>
+      </c>
+      <c r="G42" s="44">
+        <v>12</v>
+      </c>
+      <c r="H42" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="7"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H42">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="12"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B3:H42">
-      <sortCondition ref="E3:E42"/>
-      <sortCondition ref="D3:D42"/>
+  <autoFilter ref="B2:J42">
+    <sortState ref="B3:K42">
+      <sortCondition ref="G3:G42"/>
+      <sortCondition ref="F3:F42"/>
       <sortCondition ref="B3:B42"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B2:H41">
-    <sortCondition ref="E2:E41"/>
+  <sortState ref="B2:K41">
+    <sortCondition ref="G2:G41"/>
     <sortCondition ref="B2:B41"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1668,6 +2666,816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B1" s="92">
+        <v>12</v>
+      </c>
+      <c r="C1" s="91">
+        <f>COUNTIF(F3:F50,B1)</f>
+        <v>16</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="2:7" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B2" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="B3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B4" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="B5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B6" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="71"/>
+    </row>
+    <row r="8" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B8" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B9" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="39">
+        <v>3</v>
+      </c>
+      <c r="F9" s="39">
+        <v>3</v>
+      </c>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B10" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="71"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="44">
+        <v>3</v>
+      </c>
+      <c r="F11" s="44">
+        <v>3</v>
+      </c>
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="39">
+        <v>5</v>
+      </c>
+      <c r="F12" s="39">
+        <v>5</v>
+      </c>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B13" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
+      <c r="G13" s="71"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B14" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14" s="71"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5</v>
+      </c>
+      <c r="G15" s="71"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B16" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="12">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" s="71"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B17" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="71"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B18" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="44">
+        <v>5</v>
+      </c>
+      <c r="F18" s="44">
+        <v>5</v>
+      </c>
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="39">
+        <v>6</v>
+      </c>
+      <c r="F19" s="39">
+        <v>6</v>
+      </c>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B20" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="44">
+        <v>6</v>
+      </c>
+      <c r="F20" s="44">
+        <v>6</v>
+      </c>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B21" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="39">
+        <v>7</v>
+      </c>
+      <c r="F21" s="39">
+        <v>7</v>
+      </c>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B22" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="12">
+        <v>7</v>
+      </c>
+      <c r="F22" s="12">
+        <v>7</v>
+      </c>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B23" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="50">
+        <v>7</v>
+      </c>
+      <c r="F23" s="50">
+        <v>7</v>
+      </c>
+      <c r="G23" s="82"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B24" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="54">
+        <v>8</v>
+      </c>
+      <c r="F24" s="54">
+        <v>8</v>
+      </c>
+      <c r="G24" s="84"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B25" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="54">
+        <v>9</v>
+      </c>
+      <c r="F25" s="54">
+        <v>9</v>
+      </c>
+      <c r="G25" s="84"/>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" hidden="1" thickBot="1">
+      <c r="B26" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="57">
+        <v>10</v>
+      </c>
+      <c r="F26" s="57">
+        <v>10</v>
+      </c>
+      <c r="G26" s="84"/>
+    </row>
+    <row r="27" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="59">
+        <v>1</v>
+      </c>
+      <c r="F27" s="59">
+        <v>12</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B28" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>12</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B29" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>12</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B30" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>12</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B31" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>12</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B32" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>12</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B33" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>12</v>
+      </c>
+      <c r="G33" s="90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B34" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>12</v>
+      </c>
+      <c r="G34" s="90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B35" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>12</v>
+      </c>
+      <c r="G35" s="90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B36" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="12">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12">
+        <v>12</v>
+      </c>
+      <c r="G36" s="71"/>
+    </row>
+    <row r="37" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B37" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="12">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12">
+        <v>12</v>
+      </c>
+      <c r="G37" s="71"/>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B38" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="12">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12">
+        <v>12</v>
+      </c>
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B39" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="12">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12">
+        <v>12</v>
+      </c>
+      <c r="G39" s="71"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B40" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="13">
+        <v>12</v>
+      </c>
+      <c r="F40" s="13">
+        <v>12</v>
+      </c>
+      <c r="G40" s="71"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B41" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="13">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13">
+        <v>12</v>
+      </c>
+      <c r="G41" s="71"/>
+    </row>
+    <row r="42" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B42" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="44">
+        <v>12</v>
+      </c>
+      <c r="F42" s="44">
+        <v>12</v>
+      </c>
+      <c r="G42" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G2"/>
   <sheetViews>
@@ -1714,10 +3522,10 @@
       <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="7" t="s">
         <v>68</v>
       </c>

--- a/04 조달서버 인증서.xlsx
+++ b/04 조달서버 인증서.xlsx
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'계산서 사용'!$B$2:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'사용 안함'!$B$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'월별 출력'!$C$3:$H$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="169">
   <si>
     <t xml:space="preserve">AJ_004 </t>
   </si>
@@ -586,6 +587,21 @@
   </si>
   <si>
     <t>719-82-00089</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 1월로 계산서 발행</t>
+  </si>
+  <si>
+    <t>조달서버 인증서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서 ( 갯수 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,11 +609,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;조달서버 인증서 (총&quot;\ #,##0&quot;개)&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0&quot;월&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;( &quot;#,##0&quot;개 )&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +687,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -685,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -922,19 +955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -969,13 +989,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,226 +1221,280 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,7 +1781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1569,75 +1805,75 @@
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="21">
+      <c r="F1" s="76">
         <f>COUNTIF(G3:G50,C1)</f>
         <v>16</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="33.75" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="24">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="23">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1659,10 +1895,10 @@
         <v>53</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="31"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1686,12 +1922,12 @@
       <c r="I5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1713,10 +1949,10 @@
         <v>57</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="31"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1738,66 +1974,66 @@
         <v>58</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="31"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>30</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-      <c r="H8" s="35" t="s">
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>3</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>3</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41">
+      <c r="I9" s="39"/>
+      <c r="J9" s="40">
         <v>43543</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1819,64 +2055,64 @@
         <v>44</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>43543</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>5</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>3</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="43">
         <v>3</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46">
+      <c r="I11" s="44"/>
+      <c r="J11" s="45">
         <v>43544</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>101</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>5</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>5</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="47"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1898,10 +2134,10 @@
         <v>39</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>103</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1923,10 +2159,10 @@
         <v>39</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1948,10 +2184,10 @@
         <v>39</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1973,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1998,110 +2234,110 @@
         <v>39</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>110</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <v>5</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <v>5</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="48"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>4</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <v>6</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <v>6</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="47"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <v>8</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <v>6</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <v>6</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="48"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B21" s="38">
-        <v>1</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>7</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>7</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2123,137 +2359,137 @@
         <v>43</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>29</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="49">
         <v>7</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="49">
         <v>7</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="53">
+      <c r="B24" s="52">
         <v>18</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="53">
         <v>8</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="53">
         <v>8</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <v>6</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="53">
         <v>9</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="53">
         <v>9</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="53">
+      <c r="B26" s="52">
         <v>21</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="56">
         <v>10</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="56">
         <v>10</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" s="19" customFormat="1">
-      <c r="B27" s="58">
+      <c r="B27" s="57">
         <v>7</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="59">
-        <v>1</v>
-      </c>
-      <c r="G27" s="59">
-        <v>12</v>
-      </c>
-      <c r="H27" s="59" t="s">
+      <c r="F27" s="58">
+        <v>1</v>
+      </c>
+      <c r="G27" s="58">
+        <v>12</v>
+      </c>
+      <c r="H27" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="2:10" s="19" customFormat="1">
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2277,10 +2513,10 @@
       <c r="I28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="61"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="2:10" s="19" customFormat="1">
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -2304,10 +2540,10 @@
       <c r="I29" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="61"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="2:10" s="19" customFormat="1">
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2331,10 +2567,10 @@
       <c r="I30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="2:10" s="19" customFormat="1">
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>20</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -2358,10 +2594,10 @@
       <c r="I31" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="61"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="2:10" s="19" customFormat="1">
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -2385,10 +2621,10 @@
       <c r="I32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="61"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="2:10" s="19" customFormat="1">
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -2412,10 +2648,10 @@
       <c r="I33" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="62"/>
+      <c r="J33" s="61"/>
     </row>
     <row r="34" spans="2:10" s="19" customFormat="1">
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2439,10 +2675,10 @@
       <c r="I34" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="62"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="2:10" s="19" customFormat="1">
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>106</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -2466,10 +2702,10 @@
       <c r="I35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="62"/>
+      <c r="J35" s="61"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2491,10 +2727,10 @@
         <v>49</v>
       </c>
       <c r="I36" s="10"/>
-      <c r="J36" s="31"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="30">
+      <c r="B37" s="29">
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2516,10 +2752,10 @@
         <v>49</v>
       </c>
       <c r="I37" s="10"/>
-      <c r="J37" s="31"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="30">
+      <c r="B38" s="29">
         <v>13</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -2541,10 +2777,10 @@
         <v>49</v>
       </c>
       <c r="I38" s="10"/>
-      <c r="J38" s="31"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="30">
+      <c r="B39" s="29">
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2566,10 +2802,10 @@
         <v>49</v>
       </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <v>23</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -2591,10 +2827,10 @@
         <v>49</v>
       </c>
       <c r="I40" s="10"/>
-      <c r="J40" s="31"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <v>25</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -2616,32 +2852,32 @@
         <v>49</v>
       </c>
       <c r="I41" s="10"/>
-      <c r="J41" s="31"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B42" s="43">
+      <c r="B42" s="42">
         <v>28</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="44">
-        <v>12</v>
-      </c>
-      <c r="G42" s="44">
-        <v>12</v>
-      </c>
-      <c r="H42" s="44" t="s">
+      <c r="F42" s="43">
+        <v>12</v>
+      </c>
+      <c r="G42" s="43">
+        <v>12</v>
+      </c>
+      <c r="H42" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:J42">
@@ -2670,808 +2906,989 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="108" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B1" s="92">
-        <v>12</v>
-      </c>
-      <c r="C1" s="91">
-        <f>COUNTIF(F3:F50,B1)</f>
+    <row r="1" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A1" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="4.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="C2" s="74">
+        <v>1</v>
+      </c>
+      <c r="D2" s="77">
+        <f>COUNTIF(G4:G51,C2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A3" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="104">
+        <v>1</v>
+      </c>
+      <c r="B4" s="109">
+        <f>COUNTIF($G$4:$G$51,G4)</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="81">
+        <v>1</v>
+      </c>
+      <c r="G4" s="81">
+        <v>1</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A5" s="105"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-    </row>
-    <row r="2" spans="2:7" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="B3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1</v>
-      </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B4" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D5" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="71"/>
-    </row>
-    <row r="5" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A6" s="105"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D6" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="73" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B6" s="74" t="s">
+      <c r="K6" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A7" s="105"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="D7" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="71"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A8" s="105"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" s="19" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B8" s="75" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A9" s="106"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D9" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E9" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="35">
-        <v>1</v>
-      </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="76" t="s">
+      <c r="F9" s="86">
+        <v>1</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B9" s="77" t="s">
+      <c r="K9" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A10" s="104">
+        <v>3</v>
+      </c>
+      <c r="B10" s="109">
+        <f>COUNTIF($G$4:$G$51,G10)</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="39">
+      <c r="F10" s="38">
         <v>3</v>
       </c>
-      <c r="F9" s="39">
+      <c r="G10" s="38">
         <v>3</v>
       </c>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B10" s="70" t="s">
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A11" s="105"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="12">
+      <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G11" s="12">
         <v>3</v>
       </c>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B11" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A12" s="106"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="44">
+      <c r="F12" s="43">
         <v>3</v>
       </c>
-      <c r="F11" s="44">
+      <c r="G12" s="43">
         <v>3</v>
       </c>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B12" s="77" t="s">
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A13" s="104">
+        <v>5</v>
+      </c>
+      <c r="B13" s="109">
+        <f>COUNTIF($G$4:$G$51,G13)</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="39">
+      <c r="F13" s="38">
         <v>5</v>
       </c>
-      <c r="F12" s="39">
+      <c r="G13" s="38">
         <v>5</v>
       </c>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B13" s="70" t="s">
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A14" s="105"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E13" s="12">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12">
-        <v>5</v>
-      </c>
-      <c r="G13" s="71"/>
-    </row>
-    <row r="14" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B14" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="12">
-        <v>5</v>
       </c>
       <c r="F14" s="12">
         <v>5</v>
       </c>
-      <c r="G14" s="71"/>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B15" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="G14" s="12">
         <v>5</v>
+      </c>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A15" s="105"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="F15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B16" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="G15" s="12">
         <v>5</v>
+      </c>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="F16" s="12">
         <v>5</v>
       </c>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B17" s="70" t="s">
+      <c r="G16" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="12">
-        <v>5</v>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="F17" s="12">
         <v>5</v>
       </c>
-      <c r="G17" s="71"/>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B18" s="79" t="s">
+      <c r="G17" s="12">
+        <v>5</v>
+      </c>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5</v>
+      </c>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A19" s="106"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="44">
+      <c r="F19" s="43">
         <v>5</v>
       </c>
-      <c r="F18" s="44">
+      <c r="G19" s="43">
         <v>5</v>
       </c>
-      <c r="G18" s="80"/>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B19" s="77" t="s">
+      <c r="H19" s="68"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A20" s="104">
+        <v>6</v>
+      </c>
+      <c r="B20" s="109">
+        <f>COUNTIF($G$4:$G$51,G20)</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="39">
+      <c r="F20" s="38">
         <v>6</v>
       </c>
-      <c r="F19" s="39">
+      <c r="G20" s="38">
         <v>6</v>
       </c>
-      <c r="G19" s="78"/>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B20" s="79" t="s">
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A21" s="106"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="44">
+      <c r="F21" s="43">
         <v>6</v>
       </c>
-      <c r="F20" s="44">
+      <c r="G21" s="43">
         <v>6</v>
       </c>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B21" s="77" t="s">
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A22" s="104">
+        <v>7</v>
+      </c>
+      <c r="B22" s="109">
+        <f>COUNTIF($G$4:$G$51,G22)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="39">
+      <c r="F22" s="38">
         <v>7</v>
       </c>
-      <c r="F21" s="39">
+      <c r="G22" s="38">
         <v>7</v>
       </c>
-      <c r="G21" s="78"/>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" hidden="1" customHeight="1">
-      <c r="B22" s="70" t="s">
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A23" s="105"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="12">
+      <c r="F23" s="12">
         <v>7</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G23" s="12">
         <v>7</v>
       </c>
-      <c r="G22" s="71"/>
-    </row>
-    <row r="23" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B23" s="81" t="s">
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A24" s="106"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="50">
+      <c r="F24" s="49">
         <v>7</v>
       </c>
-      <c r="F23" s="50">
+      <c r="G24" s="49">
         <v>7</v>
       </c>
-      <c r="G23" s="82"/>
-    </row>
-    <row r="24" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B24" s="83" t="s">
+      <c r="H24" s="69"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A25" s="107">
+        <v>8</v>
+      </c>
+      <c r="B25" s="112">
+        <f>COUNTIF($G$4:$G$51,G25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="54">
+      <c r="F25" s="53">
         <v>8</v>
       </c>
-      <c r="F24" s="54">
+      <c r="G25" s="53">
         <v>8</v>
       </c>
-      <c r="G24" s="84"/>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B25" s="83" t="s">
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A26" s="107">
+        <v>9</v>
+      </c>
+      <c r="B26" s="112">
+        <f>COUNTIF($G$4:$G$51,G26)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="54">
+      <c r="F26" s="53">
         <v>9</v>
       </c>
-      <c r="F25" s="54">
+      <c r="G26" s="53">
         <v>9</v>
       </c>
-      <c r="G25" s="84"/>
-    </row>
-    <row r="26" spans="2:7" ht="17.25" hidden="1" thickBot="1">
-      <c r="B26" s="85" t="s">
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A27" s="107">
+        <v>10</v>
+      </c>
+      <c r="B27" s="112">
+        <f>COUNTIF($G$4:$G$51,G27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="D27" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="E27" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="57">
+      <c r="F27" s="56">
         <v>10</v>
       </c>
-      <c r="F26" s="57">
+      <c r="G27" s="56">
         <v>10</v>
       </c>
-      <c r="G26" s="84"/>
-    </row>
-    <row r="27" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="86" t="s">
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A28" s="104">
+        <v>12</v>
+      </c>
+      <c r="B28" s="109">
+        <f>COUNTIF($G$4:$G$51,G28)</f>
+        <v>16</v>
+      </c>
+      <c r="C28" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="D28" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="59">
-        <v>1</v>
-      </c>
-      <c r="F27" s="59">
-        <v>12</v>
-      </c>
-      <c r="G27" s="87" t="s">
+      <c r="F28" s="58">
+        <v>1</v>
+      </c>
+      <c r="G28" s="58">
+        <v>12</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="88" t="s">
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A29" s="105"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>12</v>
-      </c>
-      <c r="G28" s="89" t="s">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>12</v>
+      </c>
+      <c r="H29" s="72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="88" t="s">
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A30" s="105"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
-        <v>12</v>
-      </c>
-      <c r="G29" s="89" t="s">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>12</v>
+      </c>
+      <c r="H30" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="88" t="s">
+    <row r="31" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="105"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
-        <v>12</v>
-      </c>
-      <c r="G30" s="89" t="s">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>12</v>
+      </c>
+      <c r="H31" s="72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="88" t="s">
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A32" s="105"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9">
-        <v>12</v>
-      </c>
-      <c r="G31" s="89" t="s">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>12</v>
+      </c>
+      <c r="H32" s="72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="88" t="s">
+    <row r="33" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A33" s="105"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9">
-        <v>12</v>
-      </c>
-      <c r="G32" s="89" t="s">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>12</v>
+      </c>
+      <c r="H33" s="72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B33" s="88" t="s">
+    <row r="34" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <v>12</v>
-      </c>
-      <c r="G33" s="90" t="s">
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>12</v>
+      </c>
+      <c r="H34" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B34" s="88" t="s">
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A35" s="105"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9">
-        <v>12</v>
-      </c>
-      <c r="G34" s="90" t="s">
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>12</v>
+      </c>
+      <c r="H35" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="88" t="s">
+    <row r="36" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A36" s="105"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9">
-        <v>12</v>
-      </c>
-      <c r="G35" s="90" t="s">
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>12</v>
+      </c>
+      <c r="H36" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B36" s="70" t="s">
+    <row r="37" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A37" s="105"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="12">
-        <v>12</v>
-      </c>
-      <c r="F36" s="12">
-        <v>12</v>
-      </c>
-      <c r="G36" s="71"/>
-    </row>
-    <row r="37" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B37" s="70" t="s">
+      <c r="F37" s="12">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <v>12</v>
+      </c>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A38" s="105"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="12">
-        <v>12</v>
-      </c>
-      <c r="F37" s="12">
-        <v>12</v>
-      </c>
-      <c r="G37" s="71"/>
-    </row>
-    <row r="38" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B38" s="70" t="s">
+      <c r="F38" s="12">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12">
+        <v>12</v>
+      </c>
+      <c r="H38" s="66"/>
+    </row>
+    <row r="39" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A39" s="105"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="12">
-        <v>12</v>
-      </c>
-      <c r="F38" s="12">
-        <v>12</v>
-      </c>
-      <c r="G38" s="71"/>
-    </row>
-    <row r="39" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B39" s="70" t="s">
+      <c r="F39" s="12">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12">
+        <v>12</v>
+      </c>
+      <c r="H39" s="66"/>
+    </row>
+    <row r="40" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A40" s="105"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="12">
-        <v>12</v>
-      </c>
-      <c r="F39" s="12">
-        <v>12</v>
-      </c>
-      <c r="G39" s="71"/>
-    </row>
-    <row r="40" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B40" s="74" t="s">
+      <c r="F40" s="12">
+        <v>12</v>
+      </c>
+      <c r="G40" s="12">
+        <v>12</v>
+      </c>
+      <c r="H40" s="66"/>
+    </row>
+    <row r="41" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A41" s="105"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="D41" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="13">
-        <v>12</v>
-      </c>
-      <c r="F40" s="13">
-        <v>12</v>
-      </c>
-      <c r="G40" s="71"/>
-    </row>
-    <row r="41" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B41" s="74" t="s">
+      <c r="F41" s="13">
+        <v>12</v>
+      </c>
+      <c r="G41" s="13">
+        <v>12</v>
+      </c>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A42" s="105"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="13">
-        <v>12</v>
-      </c>
-      <c r="F41" s="13">
-        <v>12</v>
-      </c>
-      <c r="G41" s="71"/>
-    </row>
-    <row r="42" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B42" s="79" t="s">
+      <c r="F42" s="13">
+        <v>12</v>
+      </c>
+      <c r="G42" s="13">
+        <v>12</v>
+      </c>
+      <c r="H42" s="66"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A43" s="106"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="D43" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="44">
-        <v>12</v>
-      </c>
-      <c r="F42" s="44">
-        <v>12</v>
-      </c>
-      <c r="G42" s="80"/>
+      <c r="F43" s="43">
+        <v>12</v>
+      </c>
+      <c r="G43" s="43">
+        <v>12</v>
+      </c>
+      <c r="H43" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
+  <autoFilter ref="C3:H43"/>
+  <mergeCells count="15">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="A28:A43"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
